--- a/doc/服务接口设计文档0521.xlsx
+++ b/doc/服务接口设计文档0521.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="1000" firstSheet="16" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="1000" firstSheet="16" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="上传用户头像#" sheetId="33" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="216">
   <si>
     <t>Request</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -939,6 +939,18 @@
 Aname 分区名称
 Description 描述
 PicUrl 活动封面地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RightCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>答对的题数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1098,7 +1110,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1147,6 +1159,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1505,28 +1520,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>205</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -1563,12 +1578,12 @@
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -1624,28 +1639,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="23" t="s">
         <v>210</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -1684,12 +1699,12 @@
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
@@ -1745,28 +1760,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -1792,7 +1807,7 @@
       <c r="C5" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="26" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1806,16 +1821,16 @@
       <c r="C6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="26"/>
+      <c r="D6" s="27"/>
       <c r="F6" s="9"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
@@ -1875,28 +1890,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -1922,7 +1937,7 @@
       <c r="C5" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="26" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1936,7 +1951,7 @@
       <c r="C6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="26"/>
+      <c r="D6" s="27"/>
       <c r="F6" s="9"/>
     </row>
     <row r="7" spans="1:6" ht="57" x14ac:dyDescent="0.2">
@@ -1952,12 +1967,12 @@
       <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
@@ -2030,28 +2045,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -2077,7 +2092,7 @@
       <c r="C5" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="31" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2091,7 +2106,7 @@
       <c r="C6" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="31"/>
+      <c r="D6" s="32"/>
     </row>
     <row r="7" spans="1:8" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
@@ -2103,15 +2118,15 @@
       <c r="C7" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="32"/>
+      <c r="D7" s="33"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
@@ -2182,28 +2197,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>186</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -2229,7 +2244,7 @@
       <c r="C5" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="31" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2243,7 +2258,7 @@
       <c r="C6" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="31"/>
+      <c r="D6" s="32"/>
     </row>
     <row r="7" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
@@ -2255,7 +2270,7 @@
       <c r="C7" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="32"/>
+      <c r="D7" s="33"/>
     </row>
     <row r="8" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
@@ -2270,12 +2285,12 @@
       <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
@@ -2305,10 +2320,10 @@
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="35" t="s">
         <v>187</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="35" t="s">
         <v>53</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -2317,8 +2332,8 @@
       <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A13" s="34"/>
-      <c r="B13" s="34"/>
+      <c r="A13" s="35"/>
+      <c r="B13" s="35"/>
       <c r="C13" s="5" t="s">
         <v>59</v>
       </c>
@@ -2327,8 +2342,8 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="34"/>
-      <c r="B14" s="34"/>
+      <c r="A14" s="35"/>
+      <c r="B14" s="35"/>
       <c r="C14" s="5" t="s">
         <v>160</v>
       </c>
@@ -2337,8 +2352,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="34"/>
-      <c r="B15" s="34"/>
+      <c r="A15" s="35"/>
+      <c r="B15" s="35"/>
       <c r="C15" s="19" t="s">
         <v>61</v>
       </c>
@@ -2347,30 +2362,30 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="34"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="35" t="s">
+      <c r="A16" s="35"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="33" t="s">
+      <c r="D16" s="34" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="34"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="33"/>
+      <c r="A17" s="35"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="34"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="34"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="33"/>
+      <c r="A18" s="35"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="34"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="34"/>
-      <c r="B19" s="34"/>
+      <c r="A19" s="35"/>
+      <c r="B19" s="35"/>
       <c r="C19" s="19" t="s">
         <v>66</v>
       </c>
@@ -2409,28 +2424,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -2459,12 +2474,12 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
@@ -2533,30 +2548,30 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="36" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="35"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="35"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="36"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="35"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="35"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="36"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
@@ -2605,28 +2620,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -2689,12 +2704,12 @@
       <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
@@ -2738,7 +2753,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -2750,28 +2765,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -2836,12 +2851,12 @@
       <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
@@ -2896,28 +2911,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -2956,12 +2971,12 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
@@ -3042,10 +3057,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3055,28 +3070,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -3138,58 +3153,70 @@
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:4" ht="27" x14ac:dyDescent="0.2">
+      <c r="A9" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C10" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="29" t="s">
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B12" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C12" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D12" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+    <row r="13" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B13" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C13" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="D12" s="8"/>
+      <c r="D13" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3212,28 +3239,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -3306,12 +3333,12 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
@@ -3370,8 +3397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3382,28 +3409,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -3430,12 +3457,12 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
@@ -3452,10 +3479,10 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="40" t="s">
         <v>140</v>
       </c>
       <c r="C8" s="14" t="s">
@@ -3466,8 +3493,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="40"/>
-      <c r="B9" s="40"/>
+      <c r="A9" s="41"/>
+      <c r="B9" s="41"/>
       <c r="C9" s="14" t="s">
         <v>144</v>
       </c>
@@ -3476,8 +3503,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="40"/>
-      <c r="B10" s="40"/>
+      <c r="A10" s="41"/>
+      <c r="B10" s="41"/>
       <c r="C10" s="14" t="s">
         <v>143</v>
       </c>
@@ -3486,8 +3513,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="40"/>
-      <c r="B11" s="40"/>
+      <c r="A11" s="41"/>
+      <c r="B11" s="41"/>
       <c r="C11" s="14" t="s">
         <v>141</v>
       </c>
@@ -3496,8 +3523,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="40"/>
-      <c r="B12" s="40"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
       <c r="C12" s="14" t="s">
         <v>98</v>
       </c>
@@ -3506,8 +3533,8 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="41"/>
-      <c r="B13" s="41"/>
+      <c r="A13" s="42"/>
+      <c r="B13" s="42"/>
       <c r="C13" s="11" t="s">
         <v>145</v>
       </c>
@@ -3543,28 +3570,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -3617,12 +3644,12 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
@@ -3677,28 +3704,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -3737,12 +3764,12 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
@@ -3797,28 +3824,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -3845,12 +3872,12 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
@@ -3906,28 +3933,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -3966,12 +3993,12 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
@@ -4026,28 +4053,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -4086,12 +4113,12 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
@@ -4146,28 +4173,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -4194,12 +4221,12 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
@@ -4255,28 +4282,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -4349,12 +4376,12 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
@@ -4425,28 +4452,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -4473,12 +4500,12 @@
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -4593,28 +4620,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>203</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="23" t="s">
         <v>198</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -4645,7 +4672,7 @@
         <v>190</v>
       </c>
       <c r="B6" s="3"/>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="25" t="s">
         <v>200</v>
       </c>
       <c r="D6" s="3"/>
@@ -4655,7 +4682,7 @@
         <v>191</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="24"/>
+      <c r="C7" s="25"/>
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -4663,7 +4690,7 @@
         <v>192</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="C8" s="24"/>
+      <c r="C8" s="25"/>
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -4671,16 +4698,16 @@
         <v>193</v>
       </c>
       <c r="B9" s="3"/>
-      <c r="C9" s="24"/>
+      <c r="C9" s="25"/>
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -4738,28 +4765,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
     </row>
     <row r="3" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -4782,12 +4809,12 @@
       <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
@@ -4845,28 +4872,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
     </row>
     <row r="3" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -4895,12 +4922,12 @@
       <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
@@ -4971,28 +4998,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -5035,12 +5062,12 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
@@ -5111,28 +5138,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -5187,12 +5214,12 @@
       <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
